--- a/IFC_Height_Validations.xlsx
+++ b/IFC_Height_Validations.xlsx
@@ -26,25 +26,25 @@
     <t>Storey</t>
   </si>
   <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>Length</t>
+    <t>Height of Wall</t>
+  </si>
+  <si>
+    <t>Length of Wall</t>
   </si>
   <si>
     <t>Thickness</t>
   </si>
   <si>
-    <t>No. Of Openings</t>
-  </si>
-  <si>
-    <t>Height of Biggest Opening</t>
-  </si>
-  <si>
-    <t>Calculated Height</t>
-  </si>
-  <si>
-    <t>Effective Height</t>
+    <t>Openings in Wall</t>
+  </si>
+  <si>
+    <t>Height of Taller Opening(H1)</t>
+  </si>
+  <si>
+    <t>Actual Height(H)</t>
+  </si>
+  <si>
+    <t>Effective Height(h)</t>
   </si>
   <si>
     <t>Formula</t>
@@ -279,13 +279,13 @@
         <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>3000.0</v>
+        <v>3.0</v>
       </c>
       <c r="F2" t="n">
-        <v>1102.1302490234375</v>
+        <v>1.1021302938461304</v>
       </c>
       <c r="G2" t="n">
-        <v>200.0</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="J2" t="n">
         <v>3.759999990463257</v>
@@ -311,13 +311,13 @@
         <v>15</v>
       </c>
       <c r="E3" t="n">
-        <v>3000.0</v>
+        <v>3.0</v>
       </c>
       <c r="F3" t="n">
-        <v>1000.6768798828125</v>
+        <v>1.0006768703460693</v>
       </c>
       <c r="G3" t="n">
-        <v>200.0</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="J3" t="n">
         <v>3.759999990463257</v>
@@ -343,13 +343,13 @@
         <v>15</v>
       </c>
       <c r="E4" t="n">
-        <v>3000.0</v>
+        <v>3.0</v>
       </c>
       <c r="F4" t="n">
-        <v>1700.0</v>
+        <v>1.7000000476837158</v>
       </c>
       <c r="G4" t="n">
-        <v>200.0</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="J4" t="n">
         <v>3.759999990463257</v>
@@ -375,13 +375,13 @@
         <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>3000.0</v>
+        <v>3.0</v>
       </c>
       <c r="F5" t="n">
-        <v>1001.8794555664062</v>
+        <v>1.0018794536590576</v>
       </c>
       <c r="G5" t="n">
-        <v>200.0</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="J5" t="n">
         <v>3.759999990463257</v>
@@ -407,13 +407,13 @@
         <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>3000.0</v>
+        <v>3.0</v>
       </c>
       <c r="F6" t="n">
-        <v>1000.93505859375</v>
+        <v>1.0009350776672363</v>
       </c>
       <c r="G6" t="n">
-        <v>200.0</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="J6" t="n">
         <v>3.759999990463257</v>
@@ -439,13 +439,13 @@
         <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>3000.0</v>
+        <v>3.0</v>
       </c>
       <c r="F7" t="n">
-        <v>1700.115966796875</v>
+        <v>1.7001159191131592</v>
       </c>
       <c r="G7" t="n">
-        <v>200.0</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="J7" t="n">
         <v>3.759999990463257</v>
@@ -471,13 +471,13 @@
         <v>15</v>
       </c>
       <c r="E8" t="n">
-        <v>3000.0</v>
+        <v>3.0</v>
       </c>
       <c r="F8" t="n">
-        <v>600.0</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="G8" t="n">
-        <v>200.0</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="J8" t="n">
         <v>3.759999990463257</v>
@@ -503,13 +503,13 @@
         <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>3000.0</v>
+        <v>3.0</v>
       </c>
       <c r="F9" t="n">
-        <v>750.0</v>
+        <v>0.75</v>
       </c>
       <c r="G9" t="n">
-        <v>200.0</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="J9" t="n">
         <v>3.759999990463257</v>
@@ -535,13 +535,13 @@
         <v>15</v>
       </c>
       <c r="E10" t="n">
-        <v>3000.0</v>
+        <v>3.0</v>
       </c>
       <c r="F10" t="n">
-        <v>4400.0</v>
+        <v>4.400000095367432</v>
       </c>
       <c r="G10" t="n">
-        <v>200.0</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="J10" t="n">
         <v>3.759999990463257</v>
@@ -567,13 +567,13 @@
         <v>15</v>
       </c>
       <c r="E11" t="n">
-        <v>3000.0</v>
+        <v>3.0</v>
       </c>
       <c r="F11" t="n">
-        <v>2200.0</v>
+        <v>2.200000047683716</v>
       </c>
       <c r="G11" t="n">
-        <v>200.0</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="J11" t="n">
         <v>3.759999990463257</v>
@@ -599,13 +599,13 @@
         <v>15</v>
       </c>
       <c r="E12" t="n">
-        <v>3000.0</v>
+        <v>3.0</v>
       </c>
       <c r="F12" t="n">
-        <v>1000.8743286132812</v>
+        <v>1.0008742809295654</v>
       </c>
       <c r="G12" t="n">
-        <v>200.0</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="J12" t="n">
         <v>3.759999990463257</v>
@@ -631,13 +631,13 @@
         <v>15</v>
       </c>
       <c r="E13" t="n">
-        <v>3000.0</v>
+        <v>3.0</v>
       </c>
       <c r="F13" t="n">
-        <v>600.0</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="G13" t="n">
-        <v>200.0</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="J13" t="n">
         <v>3.759999990463257</v>
@@ -663,13 +663,13 @@
         <v>15</v>
       </c>
       <c r="E14" t="n">
-        <v>3000.0</v>
+        <v>3.0</v>
       </c>
       <c r="F14" t="n">
-        <v>750.0</v>
+        <v>0.75</v>
       </c>
       <c r="G14" t="n">
-        <v>200.0</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="H14" t="n">
         <v>2.0</v>
@@ -701,13 +701,13 @@
         <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>3000.0</v>
+        <v>3.0</v>
       </c>
       <c r="F15" t="n">
-        <v>750.0</v>
+        <v>0.75</v>
       </c>
       <c r="G15" t="n">
-        <v>200.0</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="H15" t="n">
         <v>2.0</v>
@@ -739,13 +739,13 @@
         <v>15</v>
       </c>
       <c r="E16" t="n">
-        <v>3000.0</v>
+        <v>3.0</v>
       </c>
       <c r="F16" t="n">
-        <v>1500.0</v>
+        <v>1.5</v>
       </c>
       <c r="G16" t="n">
-        <v>200.0</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="J16" t="n">
         <v>3.759999990463257</v>
@@ -771,13 +771,13 @@
         <v>15</v>
       </c>
       <c r="E17" t="n">
-        <v>3000.0</v>
+        <v>3.0</v>
       </c>
       <c r="F17" t="n">
-        <v>3101.779296875</v>
+        <v>3.1017792224884033</v>
       </c>
       <c r="G17" t="n">
-        <v>200.0</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="J17" t="n">
         <v>3.759999990463257</v>
@@ -803,13 +803,13 @@
         <v>15</v>
       </c>
       <c r="E18" t="n">
-        <v>3000.0</v>
+        <v>3.0</v>
       </c>
       <c r="F18" t="n">
-        <v>2801.779296875</v>
+        <v>2.801779270172119</v>
       </c>
       <c r="G18" t="n">
-        <v>200.0</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="J18" t="n">
         <v>3.759999990463257</v>
@@ -835,13 +835,13 @@
         <v>15</v>
       </c>
       <c r="E19" t="n">
-        <v>3000.0</v>
+        <v>3.0</v>
       </c>
       <c r="F19" t="n">
-        <v>900.0</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="G19" t="n">
-        <v>200.0</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="J19" t="n">
         <v>3.759999990463257</v>
@@ -867,13 +867,13 @@
         <v>15</v>
       </c>
       <c r="E20" t="n">
-        <v>3000.0</v>
+        <v>3.0</v>
       </c>
       <c r="F20" t="n">
-        <v>500.0</v>
+        <v>0.5</v>
       </c>
       <c r="G20" t="n">
-        <v>200.0</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="J20" t="n">
         <v>3.759999990463257</v>
@@ -899,13 +899,13 @@
         <v>15</v>
       </c>
       <c r="E21" t="n">
-        <v>3000.0</v>
+        <v>3.0</v>
       </c>
       <c r="F21" t="n">
-        <v>4600.0</v>
+        <v>4.599999904632568</v>
       </c>
       <c r="G21" t="n">
-        <v>200.0</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="J21" t="n">
         <v>3.759999990463257</v>
